--- a/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>499577.45</v>
+        <v>500777.45</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>3544.309999999998</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>496033.14</v>
+        <v>497233.14</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>496033.1100000017</v>
+        <v>497233.1100000017</v>
       </c>
     </row>
     <row r="4">
@@ -659,403 +659,403 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>48727.37</v>
+        <v>51561.82</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>15500</v>
+        <v>18358.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>33227.37</v>
+        <v>33202.94</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>33227.37000000001</v>
+        <v>32365.42999999996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>33889.44</v>
+        <v>30642.32</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1991.290000000001</v>
+        <v>4069.900000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>31898.15</v>
+        <v>26572.42</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>31898.14999999997</v>
+        <v>26572.41999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>30642.32</v>
+        <v>45208.65</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>4069.900000000001</v>
+        <v>21591.08</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>26572.42</v>
+        <v>23617.57</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>26572.41999999998</v>
+        <v>23617.57000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>Atlanta - Stone Mountain</t>
+          <t>Cem Mermer (Cemalettin)</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>19323.92</v>
+        <v>17019.9</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>19323.92</v>
+        <v>17019.9</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>19323.91999999995</v>
+        <v>17019.90000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>16805.84</v>
+        <v>17163.84</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0</v>
+        <v>787.7700000000023</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>16805.84</v>
+        <v>16376.07</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>16805.84</v>
+        <v>16376.06999999996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Alex - Ghana</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>15910.9</v>
+        <v>9083.41</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>15910.9</v>
+        <v>9083.41</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>15910.90000000001</v>
+        <v>9083.410000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Porcemar - Venezuela</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>30707.4</v>
+        <v>15910.9</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>21367.4</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>9340</v>
+        <v>5910.900000000001</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>9340</v>
+        <v>5910.900000000009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Alex - Ghana</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>9083.41</v>
+        <v>2813.04</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>9083.41</v>
+        <v>2813.04</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>9083.410000000003</v>
+        <v>2813.040000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Villo Home - USA</t>
+          <t>Hisarli Mermer</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>32382.82</v>
+        <v>2575.15</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>24170.3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>8212.52</v>
+        <v>2575.15</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>8212.519999999971</v>
+        <v>2575.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Keith Tabor - USA</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3537.28</v>
+        <v>2075.55</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>3300.28</v>
+        <v>2075.55</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>2780.28</v>
+        <v>2075.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Abbas - Angola</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2260.43</v>
+        <v>18099.44</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0</v>
+        <v>17739.75</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>2260.43</v>
+        <v>359.6899999999987</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>2260.429999999997</v>
+        <v>359.6900000000314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Tracy - AU</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>13244.78</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>2244.780000000001</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>2244.779999999995</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Sean - MALTA</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1339.65</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>1339.65</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>1339.650000000023</v>
+        <v>-2758.850000000002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Bruce - USA</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>10540.31</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>9440.309999999999</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1100.000000000058</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Hantaş Mermer</t>
+          <t>Thomas Gebing - DE</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>952.6800000000001</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>952.6800000000001</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>952.6800000000001</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Abbas - Angola</t>
+          <t>Donald Gorski - USA</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>18099.44</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>17739.75</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>359.6899999999987</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0</v>
+        <v>5356.58</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>359.6900000000314</v>
+        <v>-5356.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Yosof - Oman</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>21924.67</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>21591.08</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>333.5899999999965</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>333.5899999999965</v>
+        <v>-5400.000000000058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>Bigeni - Malta</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0</v>
+        <v>23417.16</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0</v>
+        <v>19830.01</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>0</v>
+        <v>3587.150000000001</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>351.79</v>
+        <v>9896.15</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-351.79</v>
+        <v>-6309.000000000136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>VIA - Russia</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0</v>
+        <v>8875.18</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-484.5299999999988</v>
+        <v>-8875.179999999884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>Bethany Bristow - USA</t>
+          <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -1090,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>575</v>
+        <v>10774.99</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>-575</v>
+        <v>-10774.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Esi Okyere - Ghana</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -1112,16 +1112,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>1026</v>
+        <v>12870</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-1026.000000000007</v>
+        <v>-12870</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>Sherzod Tairov - Kazakhstan</t>
+          <t>Bigeni - Malta</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0</v>
+        <v>19453.04</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-1134</v>
+        <v>-19453.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>1802.66</v>
+        <v>20635.6</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-1802.910000000015</v>
+        <v>-20635.60000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>Douglas - Belize</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-4000</v>
+        <v>-34000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Prim Rose - Ghana</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0</v>
+        <v>55353.55</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-4573.840000000004</v>
+        <v>-55353.55000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>VIA - Russia</t>
+          <t>Carl Max - Ghana</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
@@ -1222,143 +1222,59 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>8875.18</v>
+        <v>105000</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-8875.179999999884</v>
+        <v>-105000</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>-9396.290000000139</v>
-      </c>
+      <c r="A31" s="7" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>Cosmin Tache - Romania</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>9975.02</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>-9975.019999999997</v>
-      </c>
+      <c r="A32" s="7" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>10774.99</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>-10774.99</v>
-      </c>
+      <c r="A33" s="7" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>Brian, Copper - USA</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>11569.69</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>-11569.68999999997</v>
-      </c>
+      <c r="A34" s="7" t="n"/>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>Esi Okyere - Ghana</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>12870</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>-12870</v>
-      </c>
+      <c r="A35" s="7" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>Atu - Ghana</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>34883</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>-34882.99999999999</v>
-      </c>
+      <c r="A36" s="7" t="n"/>
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="7" t="n"/>

--- a/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>500777.45</v>
+        <v>500777.4500000001</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>3544.309999999998</v>
+        <v>2144.309999999998</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>497233.14</v>
+        <v>498633.1400000001</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
@@ -637,425 +637,425 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>Richard - Ghana</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>52005.36</v>
+        <v>88540.91</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>52005.36</v>
+        <v>88540.91</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>52005.36</v>
+        <v>88540.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Richard - Ghana</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>51561.82</v>
+        <v>52005.36</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>18358.88</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>33202.94</v>
+        <v>52005.36</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>32365.42999999996</v>
+        <v>52005.36000000004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>30642.32</v>
+        <v>49157.89</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>4069.900000000001</v>
+        <v>18358.88</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>26572.42</v>
+        <v>30799.01</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>26572.41999999998</v>
+        <v>29961.49999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>45208.65</v>
+        <v>30642.32</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>21591.08</v>
+        <v>4069.900000000001</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>23617.57</v>
+        <v>26572.42</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>23617.57000000001</v>
+        <v>26572.42000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>Cem Mermer (Cemalettin)</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>17019.9</v>
+        <v>45208.65</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0</v>
+        <v>21591.08</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>17019.9</v>
+        <v>23617.57</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>17019.90000000001</v>
+        <v>23617.57000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Cem Mermer (Cemalettin)</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>17163.84</v>
+        <v>17019.9</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>787.7700000000023</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>16376.07</v>
+        <v>17019.9</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>16376.06999999996</v>
+        <v>17019.89999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Alex - Ghana</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>9083.41</v>
+        <v>17163.84</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0</v>
+        <v>787.7700000000004</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>9083.41</v>
+        <v>16376.07</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>9083.410000000003</v>
+        <v>16376.07000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>15910.9</v>
+        <v>13870.69</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>5910.900000000001</v>
+        <v>13870.69</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>5910.900000000009</v>
+        <v>13870.69000000012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Yosof - Oman</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2813.04</v>
+        <v>17840</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>2813.04</v>
+        <v>15440</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>2813.040000000001</v>
+        <v>13039.99999999994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Hisarli Mermer</t>
+          <t>Atlanta - Stone Mountain</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2575.15</v>
+        <v>12630.99</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>2575.15</v>
+        <v>12630.99</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>2575.15</v>
+        <v>12630.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
+          <t>Alex - Ghana</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2075.55</v>
+        <v>9083.41</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>2075.55</v>
+        <v>9083.41</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>2075.55</v>
+        <v>9083.410000000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Abbas - Angola</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>18099.44</v>
+        <v>15910.9</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>17739.75</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>359.6899999999987</v>
+        <v>5910.900000000001</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>359.6900000000314</v>
+        <v>5910.899999999994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>4852.4</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0</v>
+        <v>4852.4</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-484.5299999999988</v>
+        <v>4852.400000000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>3127.74</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0</v>
+        <v>3127.74</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-2758.850000000002</v>
+        <v>3127.739999999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>2813.04</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
+        <v>2813.04</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>-4000</v>
+        <v>2813.040000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Thomas Gebing - DE</t>
+          <t>Hisarli Mermer</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>2575.15</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>0</v>
+        <v>2575.15</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-5000</v>
+        <v>2575.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Donald Gorski - USA</t>
+          <t>Cüneyt Kunter - Turkey</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>5356.58</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-5356.58</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>Yosof - Oman</t>
+          <t>Yer Ev Dekor</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>820.47</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>0</v>
+        <v>820.47</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-5400.000000000058</v>
+        <v>820.47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Abbas - Angola</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>23417.16</v>
+        <v>18099.44</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>19830.01</v>
+        <v>17739.75</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>3587.150000000001</v>
+        <v>359.6899999999987</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>9896.15</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-6309.000000000136</v>
+        <v>359.6900000000314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>VIA - Russia</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>8875.18</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-8875.179999999884</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
+          <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -1090,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>10774.99</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>-10774.99</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>Esi Okyere - Ghana</t>
+          <t>Sean - MALTA</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -1112,16 +1112,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>12870</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-12870</v>
+        <v>-2758.849999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>Bigeni - Malta</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -1134,38 +1134,38 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>19453.04</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-19453.04</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Villo Home - USA</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>5934.6</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0</v>
+        <v>3720</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>0</v>
+        <v>2214.6</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>20635.6</v>
+        <v>6417</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-20635.60000000001</v>
+        <v>-4202.400000000038</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>Douglas - Belize</t>
+          <t>Donald Gorski - USA</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>34000</v>
+        <v>5356.58</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-34000</v>
+        <v>-5356.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
@@ -1200,81 +1200,165 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>55353.55</v>
+        <v>6309</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-55353.55000000002</v>
+        <v>-6309.000000000175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
+          <t>VIA - Russia</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>8875.18</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>-8875.179999999884</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>10774.99</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>-10774.99</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>12870</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>-12870</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>Kirill Nizovskiy - Dubai</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>-20341.52000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>-34000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>35798.24</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>-35798.24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
           <t>Carl Max - Ghana</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="n">
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="n">
         <v>105000</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F36" s="3" t="n">
         <v>-105000</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="n"/>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="n"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="n"/>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="7" t="n"/>
